--- a/stock_forecast/01-preparation_analysis/Processed/SEDG.xlsx
+++ b/stock_forecast/01-preparation_analysis/Processed/SEDG.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ838"/>
+  <dimension ref="A1:AJ839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94270,7 +94270,7 @@
         <v>81.04000091552734</v>
       </c>
       <c r="F838" t="n">
-        <v>3898300</v>
+        <v>3899800</v>
       </c>
       <c r="G838" t="n">
         <v>0</v>
@@ -94282,7 +94282,7 @@
         <v>-0.0275977384620737</v>
       </c>
       <c r="J838" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K838" t="n">
         <v>0</v>
@@ -94360,6 +94360,118 @@
         <v>0.1176075578076911</v>
       </c>
       <c r="AJ838" t="inlineStr">
+        <is>
+          <t>SEDG</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B839" t="n">
+        <v>82.34999847412109</v>
+      </c>
+      <c r="C839" t="n">
+        <v>85.11000061035156</v>
+      </c>
+      <c r="D839" t="n">
+        <v>80.83999633789062</v>
+      </c>
+      <c r="E839" t="n">
+        <v>84.44000244140625</v>
+      </c>
+      <c r="F839" t="n">
+        <v>2099221</v>
+      </c>
+      <c r="G839" t="n">
+        <v>0</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="n">
+        <v>0.04195460868050738</v>
+      </c>
+      <c r="J839" t="n">
+        <v>0</v>
+      </c>
+      <c r="K839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>169170000</v>
+      </c>
+      <c r="N839" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O839" t="n">
+        <v>1963865000</v>
+      </c>
+      <c r="P839" t="n">
+        <v>246674000</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>-24702000</v>
+      </c>
+      <c r="R839" t="n">
+        <v>-24702000</v>
+      </c>
+      <c r="S839" t="n">
+        <v>214129000</v>
+      </c>
+      <c r="T839" t="n">
+        <v>-149251000</v>
+      </c>
+      <c r="U839" t="n">
+        <v>64878000</v>
+      </c>
+      <c r="V839" t="n">
+        <v>214129000</v>
+      </c>
+      <c r="W839" t="n">
+        <v>-484211000</v>
+      </c>
+      <c r="X839" t="n">
+        <v>-15178000</v>
+      </c>
+      <c r="Y839" t="n">
+        <v>83.44199981689451</v>
+      </c>
+      <c r="Z839" t="n">
+        <v>102.2980003356934</v>
+      </c>
+      <c r="AA839" t="n">
+        <v>119.9203328450521</v>
+      </c>
+      <c r="AB839" t="n">
+        <v>135.1965997314453</v>
+      </c>
+      <c r="AC839" t="n">
+        <v>24.92705472995442</v>
+      </c>
+      <c r="AD839" t="n">
+        <v>-15.10860404748588</v>
+      </c>
+      <c r="AE839" t="n">
+        <v>-12.24709420588894</v>
+      </c>
+      <c r="AF839" t="n">
+        <v>112.7329998016357</v>
+      </c>
+      <c r="AG839" t="n">
+        <v>147.3706613555216</v>
+      </c>
+      <c r="AH839" t="n">
+        <v>78.09533824774988</v>
+      </c>
+      <c r="AI839" t="n">
+        <v>0.1282190883144543</v>
+      </c>
+      <c r="AJ839" t="inlineStr">
         <is>
           <t>SEDG</t>
         </is>
